--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J517"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17813,6 +17813,310 @@
       <c r="J517" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>376.7253846153847</v>
+      </c>
+      <c r="C518" t="n">
+        <v>381.9433333333333</v>
+      </c>
+      <c r="D518" t="n">
+        <v>390.4311111111111</v>
+      </c>
+      <c r="E518" t="n">
+        <v>391.3370588235294</v>
+      </c>
+      <c r="F518" t="n">
+        <v>390.1433333333333</v>
+      </c>
+      <c r="G518" t="n">
+        <v>391.1653846153847</v>
+      </c>
+      <c r="H518" t="n">
+        <v>390.8742857142857</v>
+      </c>
+      <c r="I518" t="n">
+        <v>398.639090909091</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>389.2623076923077</v>
+      </c>
+      <c r="C519" t="n">
+        <v>389.4766666666667</v>
+      </c>
+      <c r="D519" t="n">
+        <v>398.4788888888889</v>
+      </c>
+      <c r="E519" t="n">
+        <v>398.2605882352942</v>
+      </c>
+      <c r="F519" t="n">
+        <v>397.7166666666667</v>
+      </c>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>380.0923076923077</v>
+      </c>
+      <c r="C520" t="n">
+        <v>389.1766666666667</v>
+      </c>
+      <c r="D520" t="n">
+        <v>392.0388888888889</v>
+      </c>
+      <c r="E520" t="n">
+        <v>391.8205882352942</v>
+      </c>
+      <c r="F520" t="n">
+        <v>390.7966666666667</v>
+      </c>
+      <c r="G520" t="n">
+        <v>388.8323076923077</v>
+      </c>
+      <c r="H520" t="n">
+        <v>393.3442857142857</v>
+      </c>
+      <c r="I520" t="n">
+        <v>396.0118181818182</v>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>388.1823076923077</v>
+      </c>
+      <c r="C521" t="n">
+        <v>398.98</v>
+      </c>
+      <c r="D521" t="n">
+        <v>399.4233333333333</v>
+      </c>
+      <c r="E521" t="n">
+        <v>408.6452941176471</v>
+      </c>
+      <c r="F521" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="G521" t="n">
+        <v>399.0523076923077</v>
+      </c>
+      <c r="H521" t="n">
+        <v>399.9771428571429</v>
+      </c>
+      <c r="I521" t="n">
+        <v>393.4527272727273</v>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>386.9846153846154</v>
+      </c>
+      <c r="C522" t="n">
+        <v>390.2266666666666</v>
+      </c>
+      <c r="D522" t="n">
+        <v>394.7755555555556</v>
+      </c>
+      <c r="E522" t="n">
+        <v>401.4594117647059</v>
+      </c>
+      <c r="F522" t="n">
+        <v>391.1166666666666</v>
+      </c>
+      <c r="G522" t="n">
+        <v>389.1646153846153</v>
+      </c>
+      <c r="H522" t="n">
+        <v>391.2085714285714</v>
+      </c>
+      <c r="I522" t="n">
+        <v>394.6727272727272</v>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>385.4538461538461</v>
+      </c>
+      <c r="C523" t="n">
+        <v>390.3566666666667</v>
+      </c>
+      <c r="D523" t="n">
+        <v>389.4655555555556</v>
+      </c>
+      <c r="E523" t="n">
+        <v>398.7270588235294</v>
+      </c>
+      <c r="F523" t="n">
+        <v>391.5666666666667</v>
+      </c>
+      <c r="G523" t="n">
+        <v>393.7938461538461</v>
+      </c>
+      <c r="H523" t="n">
+        <v>390.63</v>
+      </c>
+      <c r="I523" t="n">
+        <v>397.4954545454545</v>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="n">
+        <v>392.0266666666666</v>
+      </c>
+      <c r="D524" t="n">
+        <v>397.3988888888889</v>
+      </c>
+      <c r="E524" t="n">
+        <v>401.9052941176471</v>
+      </c>
+      <c r="F524" t="n">
+        <v>397.2166666666666</v>
+      </c>
+      <c r="G524" t="n">
+        <v>403.0538461538461</v>
+      </c>
+      <c r="H524" t="n">
+        <v>398.3414285714285</v>
+      </c>
+      <c r="I524" t="n">
+        <v>396.5863636363636</v>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>377.5369230769231</v>
+      </c>
+      <c r="C525" t="n">
+        <v>394.06</v>
+      </c>
+      <c r="D525" t="n">
+        <v>393.52</v>
+      </c>
+      <c r="E525" t="n">
+        <v>395.3405882352941</v>
+      </c>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>391.2284615384616</v>
+      </c>
+      <c r="C526" t="n">
+        <v>398.7833333333333</v>
+      </c>
+      <c r="D526" t="n">
+        <v>397.1677777777778</v>
+      </c>
+      <c r="E526" t="n">
+        <v>407.6082352941176</v>
+      </c>
+      <c r="F526" t="n">
+        <v>395.5433333333334</v>
+      </c>
+      <c r="G526" t="n">
+        <v>400.2784615384616</v>
+      </c>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17827,7 +18131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23245,6 +23549,96 @@
       </c>
       <c r="B541" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23807,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1492645658773704</v>
+        <v>0.1469785674399813</v>
       </c>
       <c r="J2" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01747686220877542</v>
+        <v>0.01746542964438724</v>
       </c>
       <c r="M2" t="n">
-        <v>6.471349384454848</v>
+        <v>6.437902523210985</v>
       </c>
       <c r="N2" t="n">
-        <v>68.59845160359212</v>
+        <v>67.84461266382792</v>
       </c>
       <c r="O2" t="n">
-        <v>8.282418221968275</v>
+        <v>8.236784121477745</v>
       </c>
       <c r="P2" t="n">
-        <v>381.3120650798581</v>
+        <v>381.3338144635368</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23490,28 +23884,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2137280822274221</v>
+        <v>0.213588437456161</v>
       </c>
       <c r="J3" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04733726749262812</v>
+        <v>0.04874502648759449</v>
       </c>
       <c r="M3" t="n">
-        <v>5.609532558244355</v>
+        <v>5.572184413830867</v>
       </c>
       <c r="N3" t="n">
-        <v>50.37398913481119</v>
+        <v>49.8314354204654</v>
       </c>
       <c r="O3" t="n">
-        <v>7.097463570516666</v>
+        <v>7.059138433298032</v>
       </c>
       <c r="P3" t="n">
-        <v>386.2990679239544</v>
+        <v>386.299940026246</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23567,28 +23961,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1806921593668596</v>
+        <v>0.178920560088717</v>
       </c>
       <c r="J4" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K4" t="n">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03609147506272614</v>
+        <v>0.03667635293280647</v>
       </c>
       <c r="M4" t="n">
-        <v>4.668610737981985</v>
+        <v>4.636510866037668</v>
       </c>
       <c r="N4" t="n">
-        <v>47.45895369669348</v>
+        <v>46.74344893850498</v>
       </c>
       <c r="O4" t="n">
-        <v>6.889045920640497</v>
+        <v>6.836918087742823</v>
       </c>
       <c r="P4" t="n">
-        <v>390.6231065357899</v>
+        <v>390.6401039119383</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23644,28 +24038,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2529883258304379</v>
+        <v>0.2366869280476925</v>
       </c>
       <c r="J5" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07208406128750311</v>
+        <v>0.06477628934861801</v>
       </c>
       <c r="M5" t="n">
-        <v>5.406524129778863</v>
+        <v>5.428510461206053</v>
       </c>
       <c r="N5" t="n">
-        <v>44.32429726315603</v>
+        <v>44.45705452837829</v>
       </c>
       <c r="O5" t="n">
-        <v>6.657649529913393</v>
+        <v>6.667612355887098</v>
       </c>
       <c r="P5" t="n">
-        <v>397.3143814251763</v>
+        <v>397.4718054167158</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23721,28 +24115,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1739495132583796</v>
+        <v>0.1612241993150757</v>
       </c>
       <c r="J6" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K6" t="n">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03772659864320937</v>
+        <v>0.03344719189764966</v>
       </c>
       <c r="M6" t="n">
-        <v>4.981440326743283</v>
+        <v>4.964737157018167</v>
       </c>
       <c r="N6" t="n">
-        <v>40.91379100167658</v>
+        <v>40.62027197388467</v>
       </c>
       <c r="O6" t="n">
-        <v>6.396388903254443</v>
+        <v>6.373403484315477</v>
       </c>
       <c r="P6" t="n">
-        <v>393.4156506264756</v>
+        <v>393.5391422671507</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23798,28 +24192,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08296039082111156</v>
+        <v>0.07104778052320518</v>
       </c>
       <c r="J7" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K7" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007110183293207006</v>
+        <v>0.005326352701121917</v>
       </c>
       <c r="M7" t="n">
-        <v>5.457359510318778</v>
+        <v>5.458658061351604</v>
       </c>
       <c r="N7" t="n">
-        <v>50.28768763339244</v>
+        <v>50.18073597991548</v>
       </c>
       <c r="O7" t="n">
-        <v>7.091381221834887</v>
+        <v>7.083836247395578</v>
       </c>
       <c r="P7" t="n">
-        <v>396.9224541415684</v>
+        <v>397.0392910970273</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23875,28 +24269,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05103401139794381</v>
+        <v>0.04018097204597864</v>
       </c>
       <c r="J8" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K8" t="n">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002941556160057313</v>
+        <v>0.001860149350479623</v>
       </c>
       <c r="M8" t="n">
-        <v>5.18281988824025</v>
+        <v>5.178149611933727</v>
       </c>
       <c r="N8" t="n">
-        <v>46.54078603009437</v>
+        <v>46.34206731675425</v>
       </c>
       <c r="O8" t="n">
-        <v>6.822080769830739</v>
+        <v>6.807500812835372</v>
       </c>
       <c r="P8" t="n">
-        <v>397.0110208159991</v>
+        <v>397.1171471413956</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23952,28 +24346,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03171207199828443</v>
+        <v>0.02364433545154897</v>
       </c>
       <c r="J9" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K9" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001003413642520323</v>
+        <v>0.0005724990900110027</v>
       </c>
       <c r="M9" t="n">
-        <v>5.647491903718264</v>
+        <v>5.607619070641424</v>
       </c>
       <c r="N9" t="n">
-        <v>52.76564742728526</v>
+        <v>52.18024931353516</v>
       </c>
       <c r="O9" t="n">
-        <v>7.263996656613029</v>
+        <v>7.223589780264045</v>
       </c>
       <c r="P9" t="n">
-        <v>398.3081715878566</v>
+        <v>398.3881883006021</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24010,7 +24404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J517"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48406,6 +48800,434 @@
         </is>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-35.02111848147011,173.86594317285213</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-35.02102416948973,173.86683209976022</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-35.02087599421044,173.8677104131623</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-35.020789829683096,173.86856462106337</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-35.02056520013591,173.8693748063235</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-35.02028741101563,173.8701598803629</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-35.0199126004041,173.87085150618972</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-35.019348450186115,173.87133081160644</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-35.02100572091202,173.86593348436267</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-35.02095650422278,173.86682487311788</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-35.02080388786852,173.8677005164521</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-35.020729100999844,173.8685470383697</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-35.020501676242425,173.86934434939343</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr"/>
+      <c r="H519" t="inlineStr"/>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-35.02108819843185,173.86594057090306</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-35.02095919885732,173.86682516090428</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-35.020861588870716,173.86770843600502</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-35.020785588478645,173.86856339311228</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-35.02055972008207,173.86937217887518</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-35.02030584992977,173.87017219010605</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-35.01989602515758,173.87083342426448</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>-35.01936379025587,173.8713527548286</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-35.02101543473125,173.86593431898166</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-35.02087114418719,173.86681575669525</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-35.02079542585119,173.86769935502798</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-35.02063801312795,173.86852066587352</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-35.02049175063326,173.86933959050242</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-35.020225078599616,173.87011826754693</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-35.01985151451904,173.87078486769062</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-35.019378732222975,173.87137412859784</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-35.02102620710765,173.86593524455296</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-35.02094976763639,173.86682415365198</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-35.02083706893153,173.86770507060345</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-35.02070104300549,173.86853891478592</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-35.020557035974036,173.86937089196184</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-35.02030322361567,173.87017043678918</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-35.019910357137825,173.87084905901142</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-35.01937160891268,173.87136393904152</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-35.021039975270135,173.865936427525</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-35.020948599961415,173.8668240289446</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-35.0208846453785,173.8677116005502</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-35.02072500942403,173.8685458537423</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-35.02055326144712,173.8693690822401</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-35.02026663759834,173.87014601212286</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-35.01991423971403,173.8708532945124</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-35.01935512762876,173.87134036336099</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-35.02093359982901,173.8668224269344</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-35.0208135644342,173.86770184457504</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-35.02069713201614,173.86853778244426</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-35.02050587016173,173.8693463601928</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-35.020193453388444,173.8700971547391</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-35.019862491191454,173.87079684211542</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-35.01936043561121,173.87134795617172</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-35.02111118226854,173.86594254569718</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-35.020915336194655,173.8668204763839</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-35.02084831843675,173.86770661461608</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-35.020754713335336,173.8685544538712</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
+      <c r="H525" t="inlineStr"/>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-35.020988036779535,173.8659319649287</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-35.02087291066988,173.86681594535477</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-35.020815635139606,173.86770212878247</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-35.02064710953242,173.86852329953518</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-35.02051990581137,173.8693530896695</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-35.02021538798363,173.87011179814579</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -23652,7 +23652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23743,35 +23743,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -23830,27 +23835,28 @@
       <c r="P2" t="n">
         <v>381.3338144635368</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.86623431884914 -35.02450685239848, 173.86551844901484 -35.01617495590224)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.8662343188491</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.02450685239848</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.8655184490148</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.01617495590224</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.865876383932</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.02034090415036</v>
       </c>
     </row>
@@ -23907,27 +23913,28 @@
       <c r="P3" t="n">
         <v>386.299940026246</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.8671985109007 -35.0244548266928, 173.86630988143915 -35.01613415992553)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.8671985109007</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.0244548266928</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.8663098814392</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.01613415992553</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.8667541961699</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.02029449330917</v>
       </c>
     </row>
@@ -23984,27 +23991,28 @@
       <c r="P4" t="n">
         <v>390.6401039119383</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.86819056616184 -35.02437416991969, 173.86705139037943 -35.01607412452924)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.8681905661618</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.02437416991969</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.8670513903794</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.01607412452924</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.8676209782706</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.02022414722447</v>
       </c>
     </row>
@@ -24061,27 +24069,28 @@
       <c r="P5" t="n">
         <v>397.4718054167158</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.869558487378 -35.02422237732448, 173.86720581060322 -35.016096363851716)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.869558487378</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.02422237732448</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.8672058106032</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.01609636385172</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.8683821489906</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.0201593705881</v>
       </c>
     </row>
@@ -24138,27 +24147,28 @@
       <c r="P6" t="n">
         <v>393.5391422671507</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.87094387236652 -35.02383764706465, 173.8672177283951 -35.01606592172652)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.8709438723665</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.02383764706465</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.8672177283951</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.01606592172652</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.8690808003808</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.01995178439559</v>
       </c>
     </row>
@@ -24215,27 +24225,28 @@
       <c r="P7" t="n">
         <v>397.0392910970273</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.87222381901884 -35.02337887349998, 173.8673345061053 -35.01605499032445)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.8722238190188</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.02337887349998</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.8673345061053</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.01605499032445</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.8697791625621</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.01971693191221</v>
       </c>
     </row>
@@ -24292,27 +24303,28 @@
       <c r="P8" t="n">
         <v>397.1171471413956</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.87371303947887 -35.02253557572974, 173.8669268609127 -35.016314752767585)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.8737130394789</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.02253557572974</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.8669268609127</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.01631475276758</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.8703199501958</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.01942516424866</v>
       </c>
     </row>
@@ -24369,27 +24381,28 @@
       <c r="P9" t="n">
         <v>398.3881883006021</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.8746603752294 -35.02167596929217, 173.86691633074676 -35.01626217436995)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.8746603752294</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.02167596929217</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.8669163307468</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.01626217436995</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.8707883529881</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.01896907183106</v>
       </c>
     </row>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18115,6 +18115,78 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>390.1084615384616</v>
+      </c>
+      <c r="C527" t="n">
+        <v>394.7666666666667</v>
+      </c>
+      <c r="D527" t="n">
+        <v>403.8188888888889</v>
+      </c>
+      <c r="E527" t="n">
+        <v>403.7894117647058</v>
+      </c>
+      <c r="F527" t="n">
+        <v>399.7966666666667</v>
+      </c>
+      <c r="G527" t="n">
+        <v>399.8484615384616</v>
+      </c>
+      <c r="H527" t="n">
+        <v>397.9128571428572</v>
+      </c>
+      <c r="I527" t="n">
+        <v>397.98</v>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>391.9861538461539</v>
+      </c>
+      <c r="C528" t="n">
+        <v>393.5833333333333</v>
+      </c>
+      <c r="D528" t="n">
+        <v>394.3444444444444</v>
+      </c>
+      <c r="E528" t="n">
+        <v>406.1029411764706</v>
+      </c>
+      <c r="F528" t="n">
+        <v>397.9933333333333</v>
+      </c>
+      <c r="G528" t="n">
+        <v>399.7161538461539</v>
+      </c>
+      <c r="H528" t="n">
+        <v>395.9</v>
+      </c>
+      <c r="I528" t="n">
+        <v>397.2445454545455</v>
+      </c>
+      <c r="J528" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18131,7 +18203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23639,6 +23711,36 @@
       </c>
       <c r="B550" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -23812,28 +23914,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1469785674399813</v>
+        <v>0.1521677796778117</v>
       </c>
       <c r="J2" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K2" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01746542964438724</v>
+        <v>0.01882646232573959</v>
       </c>
       <c r="M2" t="n">
-        <v>6.437902523210985</v>
+        <v>6.431921067999297</v>
       </c>
       <c r="N2" t="n">
-        <v>67.84461266382792</v>
+        <v>67.69775816159924</v>
       </c>
       <c r="O2" t="n">
-        <v>8.236784121477745</v>
+        <v>8.227864738897889</v>
       </c>
       <c r="P2" t="n">
-        <v>381.3338144635368</v>
+        <v>381.2834266970805</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23890,28 +23992,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.213588437456161</v>
+        <v>0.2156710984465277</v>
       </c>
       <c r="J3" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K3" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04874502648759449</v>
+        <v>0.05007003456825065</v>
       </c>
       <c r="M3" t="n">
-        <v>5.572184413830867</v>
+        <v>5.557182883670469</v>
       </c>
       <c r="N3" t="n">
-        <v>49.8314354204654</v>
+        <v>49.62999694402885</v>
       </c>
       <c r="O3" t="n">
-        <v>7.059138433298032</v>
+        <v>7.044856062690624</v>
       </c>
       <c r="P3" t="n">
-        <v>386.299940026246</v>
+        <v>386.2796962511987</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23968,28 +24070,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.178920560088717</v>
+        <v>0.1821746128145641</v>
       </c>
       <c r="J4" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K4" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03667635293280647</v>
+        <v>0.03817865164056855</v>
       </c>
       <c r="M4" t="n">
-        <v>4.636510866037668</v>
+        <v>4.636407481304142</v>
       </c>
       <c r="N4" t="n">
-        <v>46.74344893850498</v>
+        <v>46.70096049814192</v>
       </c>
       <c r="O4" t="n">
-        <v>6.836918087742823</v>
+        <v>6.833810101117964</v>
       </c>
       <c r="P4" t="n">
-        <v>390.6401039119383</v>
+        <v>390.6085404129549</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24046,28 +24148,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2366869280476925</v>
+        <v>0.2378941014014611</v>
       </c>
       <c r="J5" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K5" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06477628934861801</v>
+        <v>0.06594308405993832</v>
       </c>
       <c r="M5" t="n">
-        <v>5.428510461206053</v>
+        <v>5.410109433641546</v>
       </c>
       <c r="N5" t="n">
-        <v>44.45705452837829</v>
+        <v>44.27429491616503</v>
       </c>
       <c r="O5" t="n">
-        <v>6.667612355887098</v>
+        <v>6.653893214965584</v>
       </c>
       <c r="P5" t="n">
-        <v>397.4718054167158</v>
+        <v>397.4599430998815</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24124,28 +24226,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1612241993150757</v>
+        <v>0.1622787027803877</v>
       </c>
       <c r="J6" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K6" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03344719189764966</v>
+        <v>0.034173723570179</v>
       </c>
       <c r="M6" t="n">
-        <v>4.964737157018167</v>
+        <v>4.948100810996814</v>
       </c>
       <c r="N6" t="n">
-        <v>40.62027197388467</v>
+        <v>40.45254478491386</v>
       </c>
       <c r="O6" t="n">
-        <v>6.373403484315477</v>
+        <v>6.360231504034571</v>
       </c>
       <c r="P6" t="n">
-        <v>393.5391422671507</v>
+        <v>393.5287916969769</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24202,28 +24304,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07104778052320518</v>
+        <v>0.07184626444753925</v>
       </c>
       <c r="J7" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K7" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005326352701121917</v>
+        <v>0.005496745299134909</v>
       </c>
       <c r="M7" t="n">
-        <v>5.458658061351604</v>
+        <v>5.438799378730608</v>
       </c>
       <c r="N7" t="n">
-        <v>50.18073597991548</v>
+        <v>49.96667533112424</v>
       </c>
       <c r="O7" t="n">
-        <v>7.083836247395578</v>
+        <v>7.068711009167389</v>
       </c>
       <c r="P7" t="n">
-        <v>397.0392910970273</v>
+        <v>397.0313438538161</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24280,28 +24382,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04018097204597864</v>
+        <v>0.03910454831936406</v>
       </c>
       <c r="J8" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K8" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001860149350479623</v>
+        <v>0.001778111467340748</v>
       </c>
       <c r="M8" t="n">
-        <v>5.178149611933727</v>
+        <v>5.161146676605978</v>
       </c>
       <c r="N8" t="n">
-        <v>46.34206731675425</v>
+        <v>46.15284948041418</v>
       </c>
       <c r="O8" t="n">
-        <v>6.807500812835372</v>
+        <v>6.793588851293121</v>
       </c>
       <c r="P8" t="n">
-        <v>397.1171471413956</v>
+        <v>397.1278376841821</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24358,28 +24460,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02364433545154897</v>
+        <v>0.0223763316585586</v>
       </c>
       <c r="J9" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K9" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005724990900110027</v>
+        <v>0.0005176688465590162</v>
       </c>
       <c r="M9" t="n">
-        <v>5.607619070641424</v>
+        <v>5.587400652812478</v>
       </c>
       <c r="N9" t="n">
-        <v>52.18024931353516</v>
+        <v>51.9447571001031</v>
       </c>
       <c r="O9" t="n">
-        <v>7.223589780264045</v>
+        <v>7.207271127139807</v>
       </c>
       <c r="P9" t="n">
-        <v>398.3881883006021</v>
+        <v>398.4009420797119</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24417,7 +24519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49241,6 +49343,110 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-35.02099811036988,173.8659328304591</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-35.02090898883319,173.8668197984879</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-35.02075604262664,173.86769394962693</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-35.020680605764184,173.86853299762967</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>-35.02048422953773,173.86933598447033</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-35.02021878638665,173.87011406690047</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>-35.01986536717527,173.87079997951983</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>-35.0193522984739,173.87133631639324</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-35.02098122188496,173.86593137938806</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-35.020919617669605,173.86682093364402</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-35.020840931593504,173.86770560075993</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-35.020660312991744,173.86852712230433</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-35.02049935560708,173.8693432367512</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-35.0202198320491,173.87011476497887</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-35.019878874711516,173.87081471486547</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-35.01935659263197,173.8713424589766</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J528"/>
+  <dimension ref="A1:J531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18189,6 +18189,114 @@
       <c r="J528" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>384.5438461538461</v>
+      </c>
+      <c r="C529" t="n">
+        <v>390.7766666666667</v>
+      </c>
+      <c r="D529" t="n">
+        <v>390.2855555555556</v>
+      </c>
+      <c r="E529" t="n">
+        <v>398.5470588235294</v>
+      </c>
+      <c r="F529" t="n">
+        <v>392.5766666666667</v>
+      </c>
+      <c r="G529" t="n">
+        <v>390.9338461538461</v>
+      </c>
+      <c r="H529" t="n">
+        <v>392.18</v>
+      </c>
+      <c r="I529" t="n">
+        <v>395.6454545454546</v>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>391.9346153846154</v>
+      </c>
+      <c r="C530" t="n">
+        <v>394.5533333333333</v>
+      </c>
+      <c r="D530" t="n">
+        <v>399.9011111111111</v>
+      </c>
+      <c r="E530" t="n">
+        <v>406.23</v>
+      </c>
+      <c r="F530" t="n">
+        <v>399.5233333333334</v>
+      </c>
+      <c r="G530" t="n">
+        <v>399.1946153846154</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400.8314285714285</v>
+      </c>
+      <c r="I530" t="n">
+        <v>398.639090909091</v>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>391.45</v>
+      </c>
+      <c r="C531" t="n">
+        <v>394.8466666666666</v>
+      </c>
+      <c r="D531" t="n">
+        <v>397.7122222222222</v>
+      </c>
+      <c r="E531" t="n">
+        <v>404.5823529411765</v>
+      </c>
+      <c r="F531" t="n">
+        <v>400.6266666666667</v>
+      </c>
+      <c r="G531" t="n">
+        <v>395.31</v>
+      </c>
+      <c r="H531" t="n">
+        <v>396.5614285714286</v>
+      </c>
+      <c r="I531" t="n">
+        <v>395.5054545454545</v>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18203,7 +18311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23741,6 +23849,36 @@
       </c>
       <c r="B553" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -23914,28 +24052,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1521677796778117</v>
+        <v>0.1574825566002394</v>
       </c>
       <c r="J2" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K2" t="n">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01882646232573959</v>
+        <v>0.02036093590529464</v>
       </c>
       <c r="M2" t="n">
-        <v>6.431921067999297</v>
+        <v>6.415120832379614</v>
       </c>
       <c r="N2" t="n">
-        <v>67.69775816159924</v>
+        <v>67.42706668007057</v>
       </c>
       <c r="O2" t="n">
-        <v>8.227864738897889</v>
+        <v>8.211398582462708</v>
       </c>
       <c r="P2" t="n">
-        <v>381.2834266970805</v>
+        <v>381.2315815623334</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23992,28 +24130,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2156710984465277</v>
+        <v>0.217684994813382</v>
       </c>
       <c r="J3" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05007003456825065</v>
+        <v>0.0516016848955474</v>
       </c>
       <c r="M3" t="n">
-        <v>5.557182883670469</v>
+        <v>5.534190308099455</v>
       </c>
       <c r="N3" t="n">
-        <v>49.62999694402885</v>
+        <v>49.3298291982338</v>
       </c>
       <c r="O3" t="n">
-        <v>7.044856062690624</v>
+        <v>7.023519715800178</v>
       </c>
       <c r="P3" t="n">
-        <v>386.2796962511987</v>
+        <v>386.2600027909368</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24070,28 +24208,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1821746128145641</v>
+        <v>0.1830199617572918</v>
       </c>
       <c r="J4" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K4" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03817865164056855</v>
+        <v>0.03893878226957292</v>
       </c>
       <c r="M4" t="n">
-        <v>4.636407481304142</v>
+        <v>4.632132824929643</v>
       </c>
       <c r="N4" t="n">
-        <v>46.70096049814192</v>
+        <v>46.50703447870702</v>
       </c>
       <c r="O4" t="n">
-        <v>6.833810101117964</v>
+        <v>6.819606621991258</v>
       </c>
       <c r="P4" t="n">
-        <v>390.6085404129549</v>
+        <v>390.600248673651</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24148,28 +24286,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2378941014014611</v>
+        <v>0.2373052922046087</v>
       </c>
       <c r="J5" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K5" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06594308405993832</v>
+        <v>0.06638659455374019</v>
       </c>
       <c r="M5" t="n">
-        <v>5.410109433641546</v>
+        <v>5.393744271085757</v>
       </c>
       <c r="N5" t="n">
-        <v>44.27429491616503</v>
+        <v>44.05510763721171</v>
       </c>
       <c r="O5" t="n">
-        <v>6.653893214965584</v>
+        <v>6.637402175340267</v>
       </c>
       <c r="P5" t="n">
-        <v>397.4599430998815</v>
+        <v>397.4657209863875</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24226,28 +24364,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1622787027803877</v>
+        <v>0.1621133538627705</v>
       </c>
       <c r="J6" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K6" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L6" t="n">
-        <v>0.034173723570179</v>
+        <v>0.03450524241572361</v>
       </c>
       <c r="M6" t="n">
-        <v>4.948100810996814</v>
+        <v>4.937309354469489</v>
       </c>
       <c r="N6" t="n">
-        <v>40.45254478491386</v>
+        <v>40.27156103933151</v>
       </c>
       <c r="O6" t="n">
-        <v>6.360231504034571</v>
+        <v>6.345987790669906</v>
       </c>
       <c r="P6" t="n">
-        <v>393.5287916969769</v>
+        <v>393.530401232127</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24304,28 +24442,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07184626444753925</v>
+        <v>0.06704270692595889</v>
       </c>
       <c r="J7" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K7" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005496745299134909</v>
+        <v>0.00484117110559712</v>
       </c>
       <c r="M7" t="n">
-        <v>5.438799378730608</v>
+        <v>5.430028452362921</v>
       </c>
       <c r="N7" t="n">
-        <v>49.96667533112424</v>
+        <v>49.80559188305683</v>
       </c>
       <c r="O7" t="n">
-        <v>7.068711009167389</v>
+        <v>7.057307693664549</v>
       </c>
       <c r="P7" t="n">
-        <v>397.0313438538161</v>
+        <v>397.0793488384746</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24382,28 +24520,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03910454831936406</v>
+        <v>0.03704737242925357</v>
       </c>
       <c r="J8" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K8" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001778111467340748</v>
+        <v>0.001615252045754301</v>
       </c>
       <c r="M8" t="n">
-        <v>5.161146676605978</v>
+        <v>5.149862587769528</v>
       </c>
       <c r="N8" t="n">
-        <v>46.15284948041418</v>
+        <v>45.95238667027029</v>
       </c>
       <c r="O8" t="n">
-        <v>6.793588851293121</v>
+        <v>6.778818973115471</v>
       </c>
       <c r="P8" t="n">
-        <v>397.1278376841821</v>
+        <v>397.1482947400532</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24460,28 +24598,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0223763316585586</v>
+        <v>0.01914819397434152</v>
       </c>
       <c r="J9" t="n">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K9" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005176688465590162</v>
+        <v>0.0003842488245399123</v>
       </c>
       <c r="M9" t="n">
-        <v>5.587400652812478</v>
+        <v>5.563659857971778</v>
       </c>
       <c r="N9" t="n">
-        <v>51.9447571001031</v>
+        <v>51.63490012746036</v>
       </c>
       <c r="O9" t="n">
-        <v>7.207271127139807</v>
+        <v>7.185742837554121</v>
       </c>
       <c r="P9" t="n">
-        <v>398.4009420797119</v>
+        <v>398.4335284420706</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24519,7 +24657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J528"/>
+  <dimension ref="A1:J531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49447,6 +49585,162 @@
         </is>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-35.021048160062186,173.86593713076942</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-35.02094482747304,173.86682362604375</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-35.020877298356616,173.86771059215866</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-35.020726588266655,173.86854631086206</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-35.02054478973098,173.86936502042082</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-35.020289240924406,173.87016110200216</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-35.01990383824406,173.87084194755394</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>-35.01936592937255,173.87135581473183</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-35.020981685436155,173.86593141921668</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-35.020910905017786,173.86682000313573</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-35.020791145065935,173.86769876748411</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-35.02065919851452,173.8685267996321</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-35.02048652221371,173.8693370837068</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-35.020223953904555,173.87011751670667</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-35.0198457817237,173.87077861380018</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>-35.019348450186115,173.87133081160644</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-35.020986044201216,173.86593179372494</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-35.02090827026396,173.86681972174497</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-35.02081075703551,173.86770145925536</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-35.020673650600926,173.86853098391498</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>-35.02047726763132,173.8693326465453</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>-35.02025465503814,173.8701380126233</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>-35.01987443611039,173.87080987280316</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-35.01936674680172,173.87135698402494</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J531"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18297,6 +18297,42 @@
       <c r="J531" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>365.7361538461539</v>
+      </c>
+      <c r="C532" t="n">
+        <v>386.42</v>
+      </c>
+      <c r="D532" t="n">
+        <v>399.3066666666667</v>
+      </c>
+      <c r="E532" t="n">
+        <v>400.6452941176471</v>
+      </c>
+      <c r="F532" t="n">
+        <v>391.13</v>
+      </c>
+      <c r="G532" t="n">
+        <v>396.0161538461539</v>
+      </c>
+      <c r="H532" t="n">
+        <v>393.5914285714285</v>
+      </c>
+      <c r="I532" t="n">
+        <v>393.76</v>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18311,7 +18347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B556"/>
+  <dimension ref="A1:B557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23879,6 +23915,16 @@
       </c>
       <c r="B556" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -24052,28 +24098,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1574825566002394</v>
+        <v>0.1490728106331463</v>
       </c>
       <c r="J2" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K2" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02036093590529464</v>
+        <v>0.01813925214267575</v>
       </c>
       <c r="M2" t="n">
-        <v>6.415120832379614</v>
+        <v>6.450797996857706</v>
       </c>
       <c r="N2" t="n">
-        <v>67.42706668007057</v>
+        <v>68.13403536452141</v>
       </c>
       <c r="O2" t="n">
-        <v>8.211398582462708</v>
+        <v>8.254334338062725</v>
       </c>
       <c r="P2" t="n">
-        <v>381.2315815623334</v>
+        <v>381.3137868741692</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24130,28 +24176,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.217684994813382</v>
+        <v>0.2153430075166217</v>
       </c>
       <c r="J3" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K3" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0516016848955474</v>
+        <v>0.05070912548173312</v>
       </c>
       <c r="M3" t="n">
-        <v>5.534190308099455</v>
+        <v>5.534410404319609</v>
       </c>
       <c r="N3" t="n">
-        <v>49.3298291982338</v>
+        <v>49.28481819005943</v>
       </c>
       <c r="O3" t="n">
-        <v>7.023519715800178</v>
+        <v>7.020314678848765</v>
       </c>
       <c r="P3" t="n">
-        <v>386.2600027909368</v>
+        <v>386.282947552741</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24208,28 +24254,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1830199617572918</v>
+        <v>0.1846908302211478</v>
       </c>
       <c r="J4" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03893878226957292</v>
+        <v>0.03976902103143531</v>
       </c>
       <c r="M4" t="n">
-        <v>4.632132824929643</v>
+        <v>4.630415943488567</v>
       </c>
       <c r="N4" t="n">
-        <v>46.50703447870702</v>
+        <v>46.4394751837437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.819606621991258</v>
+        <v>6.814651508605829</v>
       </c>
       <c r="P4" t="n">
-        <v>390.600248673651</v>
+        <v>390.5838713119225</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24286,28 +24332,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2373052922046087</v>
+        <v>0.2360601726929347</v>
       </c>
       <c r="J5" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K5" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06638659455374019</v>
+        <v>0.06599159563496104</v>
       </c>
       <c r="M5" t="n">
-        <v>5.393744271085757</v>
+        <v>5.388909976462702</v>
       </c>
       <c r="N5" t="n">
-        <v>44.05510763721171</v>
+        <v>43.97719402057563</v>
       </c>
       <c r="O5" t="n">
-        <v>6.637402175340267</v>
+        <v>6.631530292517379</v>
       </c>
       <c r="P5" t="n">
-        <v>397.4657209863875</v>
+        <v>397.478014603219</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24364,28 +24410,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1621133538627705</v>
+        <v>0.1592957164675281</v>
       </c>
       <c r="J6" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K6" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03450524241572361</v>
+        <v>0.03343129529511446</v>
       </c>
       <c r="M6" t="n">
-        <v>4.937309354469489</v>
+        <v>4.941530800440264</v>
       </c>
       <c r="N6" t="n">
-        <v>40.27156103933151</v>
+        <v>40.27757324047125</v>
       </c>
       <c r="O6" t="n">
-        <v>6.345987790669906</v>
+        <v>6.346461473961002</v>
       </c>
       <c r="P6" t="n">
-        <v>393.530401232127</v>
+        <v>393.5582984193093</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24442,28 +24488,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06704270692595889</v>
+        <v>0.06584706315665197</v>
       </c>
       <c r="J7" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K7" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00484117110559712</v>
+        <v>0.004690822887624457</v>
       </c>
       <c r="M7" t="n">
-        <v>5.430028452362921</v>
+        <v>5.424587207182144</v>
       </c>
       <c r="N7" t="n">
-        <v>49.80559188305683</v>
+        <v>49.71514574650948</v>
       </c>
       <c r="O7" t="n">
-        <v>7.057307693664549</v>
+        <v>7.050896804414987</v>
       </c>
       <c r="P7" t="n">
-        <v>397.0793488384746</v>
+        <v>397.0913302635652</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24520,28 +24566,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03704737242925357</v>
+        <v>0.03512650059845317</v>
       </c>
       <c r="J8" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K8" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001615252045754301</v>
+        <v>0.00145766601355557</v>
       </c>
       <c r="M8" t="n">
-        <v>5.149862587769528</v>
+        <v>5.148525588879846</v>
       </c>
       <c r="N8" t="n">
-        <v>45.95238667027029</v>
+        <v>45.89730165615403</v>
       </c>
       <c r="O8" t="n">
-        <v>6.778818973115471</v>
+        <v>6.774754730331869</v>
       </c>
       <c r="P8" t="n">
-        <v>397.1482947400532</v>
+        <v>397.1674589204756</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24598,28 +24644,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01914819397434152</v>
+        <v>0.0168171939401395</v>
       </c>
       <c r="J9" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K9" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003842488245399123</v>
+        <v>0.000297477338167873</v>
       </c>
       <c r="M9" t="n">
-        <v>5.563659857971778</v>
+        <v>5.561709973245177</v>
       </c>
       <c r="N9" t="n">
-        <v>51.63490012746036</v>
+        <v>51.5764817533385</v>
       </c>
       <c r="O9" t="n">
-        <v>7.185742837554121</v>
+        <v>7.181676806522172</v>
       </c>
       <c r="P9" t="n">
-        <v>398.4335284420706</v>
+        <v>398.4571187035199</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24657,7 +24703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J531"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26313,7 +26359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.0211433679421,173.86594531112445</t>
+          <t>-35.02114336794211,173.86594531112445</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -49741,6 +49787,58 @@
         </is>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-35.021217321652315,173.8659516653151</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-35.0209839595547,173.8668278053424</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-35.02079647115921,173.867699498498</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-35.02070818391474,173.8685409822808</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-35.020556924136216,173.86937083834044</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-35.020249074119484,173.87013428682977</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-35.01989436667411,173.87083161502656</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-35.01937693812553,173.87137156222653</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18331,6 +18331,114 @@
         <v>393.76</v>
       </c>
       <c r="J532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>380.2346153846154</v>
+      </c>
+      <c r="C533" t="n">
+        <v>391.79</v>
+      </c>
+      <c r="D533" t="n">
+        <v>395.3533333333333</v>
+      </c>
+      <c r="E533" t="n">
+        <v>401.7123529411765</v>
+      </c>
+      <c r="F533" t="n">
+        <v>391.03</v>
+      </c>
+      <c r="G533" t="n">
+        <v>392.6346153846154</v>
+      </c>
+      <c r="H533" t="n">
+        <v>394.0428571428571</v>
+      </c>
+      <c r="I533" t="n">
+        <v>390.5245454545454</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>389.53</v>
+      </c>
+      <c r="C534" t="n">
+        <v>397.7033333333333</v>
+      </c>
+      <c r="D534" t="n">
+        <v>396.1377777777778</v>
+      </c>
+      <c r="E534" t="n">
+        <v>406.1276470588235</v>
+      </c>
+      <c r="F534" t="n">
+        <v>394.6633333333334</v>
+      </c>
+      <c r="G534" t="n">
+        <v>397.38</v>
+      </c>
+      <c r="H534" t="n">
+        <v>398.2085714285714</v>
+      </c>
+      <c r="I534" t="n">
+        <v>404.7745454545454</v>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>379.5623076923077</v>
+      </c>
+      <c r="C535" t="n">
+        <v>385.93</v>
+      </c>
+      <c r="D535" t="n">
+        <v>398.4266666666667</v>
+      </c>
+      <c r="E535" t="n">
+        <v>399.0588235294118</v>
+      </c>
+      <c r="F535" t="n">
+        <v>394.9500000000001</v>
+      </c>
+      <c r="G535" t="n">
+        <v>391.7623076923077</v>
+      </c>
+      <c r="H535" t="n">
+        <v>391.4542857142857</v>
+      </c>
+      <c r="I535" t="n">
+        <v>400.0909090909091</v>
+      </c>
+      <c r="J535" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18347,7 +18455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B557"/>
+  <dimension ref="A1:B560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23925,6 +24033,36 @@
       </c>
       <c r="B557" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -24098,28 +24236,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1490728106331463</v>
+        <v>0.1464700712506277</v>
       </c>
       <c r="J2" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01813925214267575</v>
+        <v>0.01771772050939402</v>
       </c>
       <c r="M2" t="n">
-        <v>6.450797996857706</v>
+        <v>6.442516035901452</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13403536452141</v>
+        <v>67.84208211394791</v>
       </c>
       <c r="O2" t="n">
-        <v>8.254334338062725</v>
+        <v>8.236630507309886</v>
       </c>
       <c r="P2" t="n">
-        <v>381.3137868741692</v>
+        <v>381.339262395298</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24176,28 +24314,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2153430075166217</v>
+        <v>0.2152920815484753</v>
       </c>
       <c r="J3" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05070912548173312</v>
+        <v>0.05119127055668193</v>
       </c>
       <c r="M3" t="n">
-        <v>5.534410404319609</v>
+        <v>5.523612517857884</v>
       </c>
       <c r="N3" t="n">
-        <v>49.28481819005943</v>
+        <v>49.10724103763882</v>
       </c>
       <c r="O3" t="n">
-        <v>7.020314678848765</v>
+        <v>7.007655887501813</v>
       </c>
       <c r="P3" t="n">
-        <v>386.282947552741</v>
+        <v>386.2834743790614</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24254,28 +24392,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1846908302211478</v>
+        <v>0.1862824006986469</v>
       </c>
       <c r="J4" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03976902103143531</v>
+        <v>0.04093472181224911</v>
       </c>
       <c r="M4" t="n">
-        <v>4.630415943488567</v>
+        <v>4.608160560964085</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4394751837437</v>
+        <v>46.15698610464337</v>
       </c>
       <c r="O4" t="n">
-        <v>6.814651508605829</v>
+        <v>6.793893295058687</v>
       </c>
       <c r="P4" t="n">
-        <v>390.5838713119225</v>
+        <v>390.568240583755</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24332,28 +24470,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2360601726929347</v>
+        <v>0.2344691143504821</v>
       </c>
       <c r="J5" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06599159563496104</v>
+        <v>0.06589667673547106</v>
       </c>
       <c r="M5" t="n">
-        <v>5.388909976462702</v>
+        <v>5.373754964430252</v>
       </c>
       <c r="N5" t="n">
-        <v>43.97719402057563</v>
+        <v>43.75530348859234</v>
       </c>
       <c r="O5" t="n">
-        <v>6.631530292517379</v>
+        <v>6.614779171566678</v>
       </c>
       <c r="P5" t="n">
-        <v>397.478014603219</v>
+        <v>397.4937536068014</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24410,28 +24548,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1592957164675281</v>
+        <v>0.1540985313971922</v>
       </c>
       <c r="J6" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K6" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03343129529511446</v>
+        <v>0.03167564447675297</v>
       </c>
       <c r="M6" t="n">
-        <v>4.941530800440264</v>
+        <v>4.936913399875319</v>
       </c>
       <c r="N6" t="n">
-        <v>40.27757324047125</v>
+        <v>40.14545405209626</v>
       </c>
       <c r="O6" t="n">
-        <v>6.346461473961002</v>
+        <v>6.336044038048998</v>
       </c>
       <c r="P6" t="n">
-        <v>393.5582984193093</v>
+        <v>393.6097949123275</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24488,28 +24626,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06584706315665197</v>
+        <v>0.059708282158502</v>
       </c>
       <c r="J7" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K7" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004690822887624457</v>
+        <v>0.003898417668085297</v>
       </c>
       <c r="M7" t="n">
-        <v>5.424587207182144</v>
+        <v>5.422094772362748</v>
       </c>
       <c r="N7" t="n">
-        <v>49.71514574650948</v>
+        <v>49.5842902614765</v>
       </c>
       <c r="O7" t="n">
-        <v>7.050896804414987</v>
+        <v>7.041611339848039</v>
       </c>
       <c r="P7" t="n">
-        <v>397.0913302635652</v>
+        <v>397.1529161631106</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24566,28 +24704,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03512650059845317</v>
+        <v>0.03072684640296804</v>
       </c>
       <c r="J8" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K8" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00145766601355557</v>
+        <v>0.001127972953918532</v>
       </c>
       <c r="M8" t="n">
-        <v>5.148525588879846</v>
+        <v>5.138714701839826</v>
       </c>
       <c r="N8" t="n">
-        <v>45.89730165615403</v>
+        <v>45.73066369520496</v>
       </c>
       <c r="O8" t="n">
-        <v>6.774754730331869</v>
+        <v>6.762445097389328</v>
       </c>
       <c r="P8" t="n">
-        <v>397.1674589204756</v>
+        <v>397.2114116491499</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24644,28 +24782,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0168171939401395</v>
+        <v>0.01625667679712116</v>
       </c>
       <c r="J9" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K9" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000297477338167873</v>
+        <v>0.0002805902834127627</v>
       </c>
       <c r="M9" t="n">
-        <v>5.561709973245177</v>
+        <v>5.558627444910869</v>
       </c>
       <c r="N9" t="n">
-        <v>51.5764817533385</v>
+        <v>51.46402794486818</v>
       </c>
       <c r="O9" t="n">
-        <v>7.181676806522172</v>
+        <v>7.173843317557764</v>
       </c>
       <c r="P9" t="n">
-        <v>398.4571187035199</v>
+        <v>398.4627561182171</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24703,7 +24841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49839,6 +49977,162 @@
         </is>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-35.02108691847707,173.8659404609281</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-35.02093572559629,173.86682265396573</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-35.02083189216804,173.86770436008453</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-35.02069882437038,173.8685382724285</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-35.020557762919964,173.86937124050084</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-35.02027579930176,173.8701521284339</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-35.01989133730538,173.87082831029159</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-35.01939582922563,173.8713985850587</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>-35.02100331321324,173.86593327749134</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>-35.0208826113545,173.86681698138355</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>-35.02082486371608,173.86770339541863</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-35.02066009628784,173.86852705956252</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-35.02052728710902,173.8693566286781</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-35.02023829528605,173.87012709093588</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-35.01986338274644,173.87079781471076</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-35.019312626595394,173.8712795677607</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-35.021092965398594,173.86594098048548</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-35.0209883607911,173.86682827539389</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-35.0208043557683,173.86770058067202</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-35.020722099400366,173.86854501120786</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-35.02052488259541,173.86935547581916</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-35.02028269337697,173.8701567308878</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>-35.01990870824121,173.8708472602309</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>-35.01933997333611,173.8713186858917</t>
+        </is>
+      </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J535"/>
+  <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18439,6 +18439,150 @@
         <v>400.0909090909091</v>
       </c>
       <c r="J535" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>388.6915384615385</v>
+      </c>
+      <c r="C536" t="n">
+        <v>396.6666666666667</v>
+      </c>
+      <c r="D536" t="n">
+        <v>395.4255555555556</v>
+      </c>
+      <c r="E536" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="F536" t="n">
+        <v>395.5066666666667</v>
+      </c>
+      <c r="G536" t="n">
+        <v>394.6315384615385</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400.0742857142857</v>
+      </c>
+      <c r="I536" t="n">
+        <v>406.6436363636364</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>382.4976923076923</v>
+      </c>
+      <c r="C537" t="n">
+        <v>389.8066666666666</v>
+      </c>
+      <c r="D537" t="n">
+        <v>395.5255555555556</v>
+      </c>
+      <c r="E537" t="n">
+        <v>404.9335294117647</v>
+      </c>
+      <c r="F537" t="n">
+        <v>391.6566666666666</v>
+      </c>
+      <c r="G537" t="n">
+        <v>388.1276923076923</v>
+      </c>
+      <c r="H537" t="n">
+        <v>385.6371428571428</v>
+      </c>
+      <c r="I537" t="n">
+        <v>394.4345454545455</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>386.8438461538461</v>
+      </c>
+      <c r="C538" t="n">
+        <v>399.25</v>
+      </c>
+      <c r="D538" t="n">
+        <v>402.7633333333333</v>
+      </c>
+      <c r="E538" t="n">
+        <v>408.3547058823529</v>
+      </c>
+      <c r="F538" t="n">
+        <v>398.14</v>
+      </c>
+      <c r="G538" t="n">
+        <v>397.3038461538461</v>
+      </c>
+      <c r="H538" t="n">
+        <v>401.0485714285714</v>
+      </c>
+      <c r="I538" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>386.5169230769231</v>
+      </c>
+      <c r="C539" t="n">
+        <v>388.28</v>
+      </c>
+      <c r="D539" t="n">
+        <v>393.56</v>
+      </c>
+      <c r="E539" t="n">
+        <v>404.1958823529412</v>
+      </c>
+      <c r="F539" t="n">
+        <v>401.77</v>
+      </c>
+      <c r="G539" t="n">
+        <v>396.1369230769231</v>
+      </c>
+      <c r="H539" t="n">
+        <v>398.5014285714286</v>
+      </c>
+      <c r="I539" t="n">
+        <v>392.5081818181818</v>
+      </c>
+      <c r="J539" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18455,7 +18599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B560"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24063,6 +24207,46 @@
       </c>
       <c r="B560" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -24236,28 +24420,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1464700712506277</v>
+        <v>0.1481352032854008</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K2" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01771772050939402</v>
+        <v>0.01842401900388935</v>
       </c>
       <c r="M2" t="n">
-        <v>6.442516035901452</v>
+        <v>6.404582997352636</v>
       </c>
       <c r="N2" t="n">
-        <v>67.84208211394791</v>
+        <v>67.2918989660988</v>
       </c>
       <c r="O2" t="n">
-        <v>8.236630507309886</v>
+        <v>8.203163960698262</v>
       </c>
       <c r="P2" t="n">
-        <v>381.339262395298</v>
+        <v>381.3228994063895</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24314,28 +24498,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2152920815484753</v>
+        <v>0.2180010118003076</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K3" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05119127055668193</v>
+        <v>0.053095207984452</v>
       </c>
       <c r="M3" t="n">
-        <v>5.523612517857884</v>
+        <v>5.513709986445646</v>
       </c>
       <c r="N3" t="n">
-        <v>49.10724103763882</v>
+        <v>48.87875992508337</v>
       </c>
       <c r="O3" t="n">
-        <v>7.007655887501813</v>
+        <v>6.99133463117618</v>
       </c>
       <c r="P3" t="n">
-        <v>386.2834743790614</v>
+        <v>386.25682927778</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24392,28 +24576,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1862824006986469</v>
+        <v>0.188588828297315</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K4" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04093472181224911</v>
+        <v>0.04251264250842091</v>
       </c>
       <c r="M4" t="n">
-        <v>4.608160560964085</v>
+        <v>4.587941205892515</v>
       </c>
       <c r="N4" t="n">
-        <v>46.15698610464337</v>
+        <v>45.88178236603065</v>
       </c>
       <c r="O4" t="n">
-        <v>6.793893295058687</v>
+        <v>6.773609256964167</v>
       </c>
       <c r="P4" t="n">
-        <v>390.568240583755</v>
+        <v>390.5455190930246</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24470,28 +24654,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2344691143504821</v>
+        <v>0.2387136512490558</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K5" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06589667673547106</v>
+        <v>0.0691503232830647</v>
       </c>
       <c r="M5" t="n">
-        <v>5.373754964430252</v>
+        <v>5.347503218232785</v>
       </c>
       <c r="N5" t="n">
-        <v>43.75530348859234</v>
+        <v>43.45813248054395</v>
       </c>
       <c r="O5" t="n">
-        <v>6.614779171566678</v>
+        <v>6.592278246596084</v>
       </c>
       <c r="P5" t="n">
-        <v>397.4937536068014</v>
+        <v>397.4516592690447</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24548,28 +24732,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1540985313971922</v>
+        <v>0.152742082239873</v>
       </c>
       <c r="J6" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03167564447675297</v>
+        <v>0.03159298270302457</v>
       </c>
       <c r="M6" t="n">
-        <v>4.936913399875319</v>
+        <v>4.922092701673427</v>
       </c>
       <c r="N6" t="n">
-        <v>40.14545405209626</v>
+        <v>39.92455286172283</v>
       </c>
       <c r="O6" t="n">
-        <v>6.336044038048998</v>
+        <v>6.318587885099236</v>
       </c>
       <c r="P6" t="n">
-        <v>393.6097949123275</v>
+        <v>393.6232106084017</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24626,28 +24810,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.059708282158502</v>
+        <v>0.05205326750461348</v>
       </c>
       <c r="J7" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K7" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003898417668085297</v>
+        <v>0.00300182348198641</v>
       </c>
       <c r="M7" t="n">
-        <v>5.422094772362748</v>
+        <v>5.416218002197927</v>
       </c>
       <c r="N7" t="n">
-        <v>49.5842902614765</v>
+        <v>49.44909814205133</v>
       </c>
       <c r="O7" t="n">
-        <v>7.041611339848039</v>
+        <v>7.032005271759354</v>
       </c>
       <c r="P7" t="n">
-        <v>397.1529161631106</v>
+        <v>397.2299115296412</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24704,28 +24888,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03072684640296804</v>
+        <v>0.02796544528364941</v>
       </c>
       <c r="J8" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001127972953918532</v>
+        <v>0.0009440785539402974</v>
       </c>
       <c r="M8" t="n">
-        <v>5.138714701839826</v>
+        <v>5.133643090371609</v>
       </c>
       <c r="N8" t="n">
-        <v>45.73066369520496</v>
+        <v>45.69594913171206</v>
       </c>
       <c r="O8" t="n">
-        <v>6.762445097389328</v>
+        <v>6.759877893254585</v>
       </c>
       <c r="P8" t="n">
-        <v>397.2114116491499</v>
+        <v>397.2390198431817</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24782,28 +24966,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01625667679712116</v>
+        <v>0.01852420782870596</v>
       </c>
       <c r="J9" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K9" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002805902834127627</v>
+        <v>0.0003679472439992448</v>
       </c>
       <c r="M9" t="n">
-        <v>5.558627444910869</v>
+        <v>5.570206466091446</v>
       </c>
       <c r="N9" t="n">
-        <v>51.46402794486818</v>
+        <v>51.42691850822774</v>
       </c>
       <c r="O9" t="n">
-        <v>7.173843317557764</v>
+        <v>7.171256410715471</v>
       </c>
       <c r="P9" t="n">
-        <v>398.4627561182171</v>
+        <v>398.4397502093852</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24841,7 +25025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J535"/>
+  <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50133,6 +50317,214 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-35.02101085456862,173.86593392545043</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-35.02089192281408,173.86681797584356</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-35.02083124507261,173.86770427126967</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-35.02065069030649,173.86852433626885</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-35.020520213365444,173.86935323712817</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-35.02026001709711,173.87014159230776</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-35.01985086262929,173.87078415654585</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-35.01930171337376,173.871263956961</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-35.02106656373657,173.8659387120296</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-35.02095354012477,173.86682455655287</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-35.02083034909432,173.86770414829525</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-35.02067057030977,173.86853009208448</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-35.02055250654172,173.8693687202958</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-35.02031141868826,173.87017590778757</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-35.01994774490239,173.87088984533352</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-35.01937299960373,173.8713659283586</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-35.021027473225104,173.86593535333878</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-35.02086871901603,173.8668154976881</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-35.02076550017556,173.86769524768786</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-35.02064056197868,173.8685214038365</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-35.02049812539072,173.8693426469168</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-35.02023889714985,173.87012749273703</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-35.019844324558285,173.87077702418267</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-35.01929846488521,173.87125931016732</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-35.02103041366183,173.86593560598357</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-35.020967252820576,173.86682602106592</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-35.02084796004542,173.8677065654263</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-35.020677040469074,173.86853196537675</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-35.02046767753519,173.86932804852097</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-35.020248119648635,173.87013364962985</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-35.019861417490795,173.8707956708178</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-35.01938424721445,173.8713820175327</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J539"/>
+  <dimension ref="A1:J544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18583,6 +18583,176 @@
         <v>392.5081818181818</v>
       </c>
       <c r="J539" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>382.8576923076923</v>
+      </c>
+      <c r="C540" t="n">
+        <v>399.0066666666667</v>
+      </c>
+      <c r="D540" t="n">
+        <v>396.4222222222222</v>
+      </c>
+      <c r="E540" t="n">
+        <v>409.5452941176471</v>
+      </c>
+      <c r="F540" t="n">
+        <v>399.1366666666667</v>
+      </c>
+      <c r="G540" t="n">
+        <v>399.0876923076923</v>
+      </c>
+      <c r="H540" t="n">
+        <v>398.0357142857143</v>
+      </c>
+      <c r="I540" t="n">
+        <v>387.6136363636364</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>378.5530769230769</v>
+      </c>
+      <c r="C541" t="n">
+        <v>395.8933333333333</v>
+      </c>
+      <c r="D541" t="n">
+        <v>392.9577777777778</v>
+      </c>
+      <c r="E541" t="n">
+        <v>407.8070588235294</v>
+      </c>
+      <c r="F541" t="n">
+        <v>391.9333333333333</v>
+      </c>
+      <c r="G541" t="n">
+        <v>395.1430769230769</v>
+      </c>
+      <c r="H541" t="n">
+        <v>395.3028571428572</v>
+      </c>
+      <c r="I541" t="n">
+        <v>397.2736363636364</v>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>371.2646153846154</v>
+      </c>
+      <c r="C542" t="n">
+        <v>390.8433333333334</v>
+      </c>
+      <c r="D542" t="n">
+        <v>387.0411111111111</v>
+      </c>
+      <c r="E542" t="n">
+        <v>380.49</v>
+      </c>
+      <c r="F542" t="n">
+        <v>366.8933333333334</v>
+      </c>
+      <c r="G542" t="n">
+        <v>361.7846153846153</v>
+      </c>
+      <c r="H542" t="n">
+        <v>368.2514285714286</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>363.5330769230769</v>
+      </c>
+      <c r="C543" t="n">
+        <v>377.1133333333333</v>
+      </c>
+      <c r="D543" t="n">
+        <v>386.3844444444445</v>
+      </c>
+      <c r="E543" t="n">
+        <v>395.0488235294118</v>
+      </c>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>376.79</v>
+      </c>
+      <c r="C544" t="n">
+        <v>393.7833333333334</v>
+      </c>
+      <c r="D544" t="n">
+        <v>393.1277777777778</v>
+      </c>
+      <c r="E544" t="n">
+        <v>402.4276470588235</v>
+      </c>
+      <c r="F544" t="n">
+        <v>395.9333333333333</v>
+      </c>
+      <c r="G544" t="n">
+        <v>396.2</v>
+      </c>
+      <c r="H544" t="n">
+        <v>397.0885714285714</v>
+      </c>
+      <c r="I544" t="n">
+        <v>396.4845454545454</v>
+      </c>
+      <c r="J544" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18599,7 +18769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24247,6 +24417,56 @@
       </c>
       <c r="B564" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -24420,28 +24640,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1481352032854008</v>
+        <v>0.1267954470464587</v>
       </c>
       <c r="J2" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K2" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01842401900388935</v>
+        <v>0.01352522521748722</v>
       </c>
       <c r="M2" t="n">
-        <v>6.404582997352636</v>
+        <v>6.462147087461987</v>
       </c>
       <c r="N2" t="n">
-        <v>67.2918989660988</v>
+        <v>68.2313939529927</v>
       </c>
       <c r="O2" t="n">
-        <v>8.203163960698262</v>
+        <v>8.260229654978891</v>
       </c>
       <c r="P2" t="n">
-        <v>381.3228994063895</v>
+        <v>381.5334891679098</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24498,28 +24718,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2180010118003076</v>
+        <v>0.2167841017572547</v>
       </c>
       <c r="J3" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="L3" t="n">
-        <v>0.053095207984452</v>
+        <v>0.05296344059937219</v>
       </c>
       <c r="M3" t="n">
-        <v>5.513709986445646</v>
+        <v>5.516672746279546</v>
       </c>
       <c r="N3" t="n">
-        <v>48.87875992508337</v>
+        <v>48.98010618600459</v>
       </c>
       <c r="O3" t="n">
-        <v>6.99133463117618</v>
+        <v>6.998578869027954</v>
       </c>
       <c r="P3" t="n">
-        <v>386.25682927778</v>
+        <v>386.2689952034165</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24576,28 +24796,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.188588828297315</v>
+        <v>0.1801866533937154</v>
       </c>
       <c r="J4" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K4" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04251264250842091</v>
+        <v>0.03947398621345721</v>
       </c>
       <c r="M4" t="n">
-        <v>4.587941205892515</v>
+        <v>4.590455823676408</v>
       </c>
       <c r="N4" t="n">
-        <v>45.88178236603065</v>
+        <v>45.7383937064664</v>
       </c>
       <c r="O4" t="n">
-        <v>6.773609256964167</v>
+        <v>6.763016612907764</v>
       </c>
       <c r="P4" t="n">
-        <v>390.5455190930246</v>
+        <v>390.628665180146</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24654,28 +24874,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2387136512490558</v>
+        <v>0.229572070118271</v>
       </c>
       <c r="J5" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0691503232830647</v>
+        <v>0.06364283070980437</v>
       </c>
       <c r="M5" t="n">
-        <v>5.347503218232785</v>
+        <v>5.387309858502306</v>
       </c>
       <c r="N5" t="n">
-        <v>43.45813248054395</v>
+        <v>44.4081217998716</v>
       </c>
       <c r="O5" t="n">
-        <v>6.592278246596084</v>
+        <v>6.6639419115019</v>
       </c>
       <c r="P5" t="n">
-        <v>397.4516592690447</v>
+        <v>397.5428222530301</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24732,28 +24952,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.152742082239873</v>
+        <v>0.1379970599501727</v>
       </c>
       <c r="J6" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K6" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03159298270302457</v>
+        <v>0.02511805119662935</v>
       </c>
       <c r="M6" t="n">
-        <v>4.922092701673427</v>
+        <v>4.966303555418413</v>
       </c>
       <c r="N6" t="n">
-        <v>39.92455286172283</v>
+        <v>41.64319813728211</v>
       </c>
       <c r="O6" t="n">
-        <v>6.318587885099236</v>
+        <v>6.453154123161952</v>
       </c>
       <c r="P6" t="n">
-        <v>393.6232106084017</v>
+        <v>393.770431799479</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24810,28 +25030,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05205326750461348</v>
+        <v>0.03500977593783815</v>
       </c>
       <c r="J7" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K7" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00300182348198641</v>
+        <v>0.001308080947926338</v>
       </c>
       <c r="M7" t="n">
-        <v>5.416218002197927</v>
+        <v>5.464769798128875</v>
       </c>
       <c r="N7" t="n">
-        <v>49.44909814205133</v>
+        <v>51.89159238701085</v>
       </c>
       <c r="O7" t="n">
-        <v>7.032005271759354</v>
+        <v>7.203581913673978</v>
       </c>
       <c r="P7" t="n">
-        <v>397.2299115296412</v>
+        <v>397.4021288340094</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24888,28 +25108,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02796544528364941</v>
+        <v>0.01461217446852012</v>
       </c>
       <c r="J8" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K8" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009440785539402974</v>
+        <v>0.0002521996989810482</v>
       </c>
       <c r="M8" t="n">
-        <v>5.133643090371609</v>
+        <v>5.164272863451582</v>
       </c>
       <c r="N8" t="n">
-        <v>45.69594913171206</v>
+        <v>47.16237290408593</v>
       </c>
       <c r="O8" t="n">
-        <v>6.759877893254585</v>
+        <v>6.867486651176391</v>
       </c>
       <c r="P8" t="n">
-        <v>397.2390198431817</v>
+        <v>397.3733470246713</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24966,28 +25186,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01852420782870596</v>
+        <v>0.01195253847258774</v>
       </c>
       <c r="J9" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003679472439992448</v>
+        <v>0.0001543928416186668</v>
       </c>
       <c r="M9" t="n">
-        <v>5.570206466091446</v>
+        <v>5.564349187351116</v>
       </c>
       <c r="N9" t="n">
-        <v>51.42691850822774</v>
+        <v>51.38286426158287</v>
       </c>
       <c r="O9" t="n">
-        <v>7.171256410715471</v>
+        <v>7.168184167666374</v>
       </c>
       <c r="P9" t="n">
-        <v>398.4397502093852</v>
+        <v>398.50674511056</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25025,7 +25245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J539"/>
+  <dimension ref="A1:J544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50525,6 +50745,246 @@
         </is>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-35.02106332579687,173.86593843382286</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-35.020870904664115,173.8668157311143</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-35.020822315155584,173.86770304562478</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-35.020630118914156,173.86851838027997</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-35.02048976551139,173.86933863872437</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-35.020224798945726,173.8701180808515</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-35.019864542726594,173.87079908013055</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-35.019412825371596,173.87142289726617</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-35.02110204269954,173.86594176041618</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-35.02089886898327,173.86681871769167</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-35.02085335582579,173.86770730600594</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-35.02064536558194,173.86852279461306</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-35.02055018590662,173.86936760765215</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-35.02025597427487,173.87013889333926</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-35.01988288191495,173.8708190863174</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-35.01935642277652,173.8713422160067</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>-35.02116759713985,173.86594739292448</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>-35.02094422866536,173.86682356209124</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>-35.020906367874,173.8677145820017</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-35.020884972999625,173.86859216783554</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-35.020760217314304,173.8694683088626</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>-35.02051961478046,173.87031489911558</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>-35.020064413807894,173.87101711981376</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-35.02123713673545,173.86595336785277</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-35.02106755310486,173.8668367331321</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-35.02091225146463,173.8677153895354</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-35.020757272504994,173.86855519482407</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-35.021117900301455,173.8659431229175</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-35.02091782124655,173.86682074178663</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-35.0208518326627,173.86770709694932</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-35.02069255027662,173.86853645590165</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-35.020516634554426,173.86935152124545</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-35.0202476211352,173.8701333168248</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-35.019870898650595,173.87080601379492</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-35.019361030105216,173.87134880656657</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J544"/>
+  <dimension ref="A1:J546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18753,6 +18753,72 @@
         <v>396.4845454545454</v>
       </c>
       <c r="J544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>403.8838461538462</v>
+      </c>
+      <c r="C545" t="n">
+        <v>389.0966666666666</v>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="n">
+        <v>390.5038461538462</v>
+      </c>
+      <c r="H545" t="n">
+        <v>387.9371428571428</v>
+      </c>
+      <c r="I545" t="n">
+        <v>376.0636363636364</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>378.4661538461539</v>
+      </c>
+      <c r="C546" t="n">
+        <v>399.83</v>
+      </c>
+      <c r="D546" t="n">
+        <v>396.38</v>
+      </c>
+      <c r="E546" t="n">
+        <v>407.6582352941176</v>
+      </c>
+      <c r="F546" t="n">
+        <v>397.89</v>
+      </c>
+      <c r="G546" t="n">
+        <v>409.8961538461539</v>
+      </c>
+      <c r="H546" t="n">
+        <v>405.3371428571429</v>
+      </c>
+      <c r="I546" t="n">
+        <v>412.1336363636364</v>
+      </c>
+      <c r="J546" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18769,7 +18835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B569"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24467,6 +24533,26 @@
       </c>
       <c r="B569" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -25245,7 +25331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J544"/>
+  <dimension ref="A1:J546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50985,6 +51071,98 @@
         </is>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-35.020874210741766,173.8659221849277</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-35.020959917426545,173.8668252376473</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-35.0202926393264,173.870163370761</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-35.01993231046799,173.8708730078986</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-35.01948026318378,173.8715193641345</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-35.02110282450976,173.8659418275901</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-35.020863509389095,173.86681494130247</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-35.02082269345754,173.86770309754732</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-35.02064667096499,173.86852317255773</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-35.02050022235039,173.86934365231633</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-35.02013937682127,173.8700610535805</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-35.01981554553662,173.8707456292486</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-35.01926965842715,173.87121810405722</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -24726,28 +24726,28 @@
         <v>0.0704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1267954470464587</v>
+        <v>0.1319001686438741</v>
       </c>
       <c r="J2" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K2" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01352522521748722</v>
+        <v>0.01456078660002413</v>
       </c>
       <c r="M2" t="n">
-        <v>6.462147087461987</v>
+        <v>6.486687305493416</v>
       </c>
       <c r="N2" t="n">
-        <v>68.2313939529927</v>
+        <v>68.81393597691557</v>
       </c>
       <c r="O2" t="n">
-        <v>8.260229654978891</v>
+        <v>8.295416564399618</v>
       </c>
       <c r="P2" t="n">
-        <v>381.5334891679098</v>
+        <v>381.4827698551209</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24804,28 +24804,28 @@
         <v>0.0824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2167841017572547</v>
+        <v>0.2188279128837802</v>
       </c>
       <c r="J3" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K3" t="n">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05296344059937219</v>
+        <v>0.05419623134415819</v>
       </c>
       <c r="M3" t="n">
-        <v>5.516672746279546</v>
+        <v>5.515671012108302</v>
       </c>
       <c r="N3" t="n">
-        <v>48.98010618600459</v>
+        <v>48.91874330946006</v>
       </c>
       <c r="O3" t="n">
-        <v>6.998578869027954</v>
+        <v>6.994193542465068</v>
       </c>
       <c r="P3" t="n">
-        <v>386.2689952034165</v>
+        <v>386.2485969864777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24882,28 +24882,28 @@
         <v>0.0987</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1801866533937154</v>
+        <v>0.1806002112775309</v>
       </c>
       <c r="J4" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K4" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03947398621345721</v>
+        <v>0.03981108547465373</v>
       </c>
       <c r="M4" t="n">
-        <v>4.590455823676408</v>
+        <v>4.582732769276499</v>
       </c>
       <c r="N4" t="n">
-        <v>45.7383937064664</v>
+        <v>45.64295436614133</v>
       </c>
       <c r="O4" t="n">
-        <v>6.763016612907764</v>
+        <v>6.755956954136204</v>
       </c>
       <c r="P4" t="n">
-        <v>390.628665180146</v>
+        <v>390.6245394924315</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24960,28 +24960,28 @@
         <v>0.0953</v>
       </c>
       <c r="I5" t="n">
-        <v>0.229572070118271</v>
+        <v>0.2312223624892725</v>
       </c>
       <c r="J5" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K5" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06364283070980437</v>
+        <v>0.06471561437301265</v>
       </c>
       <c r="M5" t="n">
-        <v>5.387309858502306</v>
+        <v>5.383571528438234</v>
       </c>
       <c r="N5" t="n">
-        <v>44.4081217998716</v>
+        <v>44.34912246022677</v>
       </c>
       <c r="O5" t="n">
-        <v>6.6639419115019</v>
+        <v>6.659513680459464</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5428222530301</v>
+        <v>397.5262421693274</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25038,28 +25038,28 @@
         <v>0.0789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1379970599501727</v>
+        <v>0.1382055315021591</v>
       </c>
       <c r="J6" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K6" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02511805119662935</v>
+        <v>0.02530179387909937</v>
       </c>
       <c r="M6" t="n">
-        <v>4.966303555418413</v>
+        <v>4.956834092668255</v>
       </c>
       <c r="N6" t="n">
-        <v>41.64319813728211</v>
+        <v>41.55570528192928</v>
       </c>
       <c r="O6" t="n">
-        <v>6.453154123161952</v>
+        <v>6.44637148184382</v>
       </c>
       <c r="P6" t="n">
-        <v>393.770431799479</v>
+        <v>393.7683328858913</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25116,28 +25116,28 @@
         <v>0.07190000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03500977593783815</v>
+        <v>0.03654401621157717</v>
       </c>
       <c r="J7" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K7" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001308080947926338</v>
+        <v>0.00142646168580074</v>
       </c>
       <c r="M7" t="n">
-        <v>5.464769798128875</v>
+        <v>5.482050121212917</v>
       </c>
       <c r="N7" t="n">
-        <v>51.89159238701085</v>
+        <v>52.0824519510853</v>
       </c>
       <c r="O7" t="n">
-        <v>7.203581913673978</v>
+        <v>7.216817300658601</v>
       </c>
       <c r="P7" t="n">
-        <v>397.4021288340094</v>
+        <v>397.3864694113309</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25194,28 +25194,28 @@
         <v>0.0746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01461217446852012</v>
+        <v>0.01371628479263774</v>
       </c>
       <c r="J8" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K8" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002521996989810482</v>
+        <v>0.0002226779548873958</v>
       </c>
       <c r="M8" t="n">
-        <v>5.164272863451582</v>
+        <v>5.179471452429805</v>
       </c>
       <c r="N8" t="n">
-        <v>47.16237290408593</v>
+        <v>47.28637111630025</v>
       </c>
       <c r="O8" t="n">
-        <v>6.867486651176391</v>
+        <v>6.876508642930673</v>
       </c>
       <c r="P8" t="n">
-        <v>397.3733470246713</v>
+        <v>397.3823981800297</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25272,28 +25272,28 @@
         <v>0.0565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01195253847258774</v>
+        <v>0.007917341166877912</v>
       </c>
       <c r="J9" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K9" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001543928416186668</v>
+        <v>6.633465172678488e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.564349187351116</v>
+        <v>5.619590164508105</v>
       </c>
       <c r="N9" t="n">
-        <v>51.38286426158287</v>
+        <v>52.72158127103256</v>
       </c>
       <c r="O9" t="n">
-        <v>7.168184167666374</v>
+        <v>7.260962833607714</v>
       </c>
       <c r="P9" t="n">
-        <v>398.50674511056</v>
+        <v>398.5481939475964</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0051/nzd0051.xlsx
+++ b/data/nzd0051/nzd0051.xlsx
@@ -24717,13 +24717,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0584</v>
+        <v>0.0725</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0704</v>
+        <v>0.0969</v>
       </c>
       <c r="I2" t="n">
         <v>0.1318821700156419</v>
@@ -24795,13 +24795,13 @@
         <v>0.8564954415971662</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0732</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0824</v>
+        <v>0.1098</v>
       </c>
       <c r="I3" t="n">
         <v>0.2188375127239539</v>
@@ -24873,13 +24873,13 @@
         <v>0.7130147039693908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08409999999999999</v>
+        <v>0.0998</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0987</v>
+        <v>0.1304</v>
       </c>
       <c r="I4" t="n">
         <v>0.180583398180595</v>
@@ -24951,13 +24951,13 @@
         <v>0.5696032307035659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0799</v>
+        <v>0.0868</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0953</v>
+        <v>0.137</v>
       </c>
       <c r="I5" t="n">
         <v>0.2312238751893284</v>
@@ -25029,13 +25029,13 @@
         <v>0.4260986723034559</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.0742</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0789</v>
+        <v>0.114</v>
       </c>
       <c r="I6" t="n">
         <v>0.1382223071202149</v>
@@ -25107,13 +25107,13 @@
         <v>0.2833895778555133</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0634</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.1121</v>
       </c>
       <c r="I7" t="n">
         <v>0.03652603598291892</v>
@@ -25185,13 +25185,13 @@
         <v>0.1398850194551457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0555</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0746</v>
+        <v>0.0854</v>
       </c>
       <c r="I8" t="n">
         <v>0.01370268091181737</v>
@@ -25263,13 +25263,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0504</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0565</v>
+        <v>0.0935</v>
       </c>
       <c r="I9" t="n">
         <v>0.007926828703640518</v>
